--- a/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
+++ b/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
@@ -39,7 +39,7 @@
     <x:t>value</x:t>
   </x:si>
   <x:si>
-    <x:t>1/01/2020 12:00:00 AM</x:t>
+    <x:t>01/01/2020 00:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>Value</x:t>
@@ -407,7 +407,7 @@
   <x:cols>
     <x:col min="1" max="1" width="10.567768" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="8.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.139196" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="8.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
+++ b/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -30,7 +30,7 @@
     <x:t>Enum</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>Bool</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -43,6 +43,9 @@
   </x:si>
   <x:si>
     <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRUE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -397,7 +400,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:E3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -409,9 +412,10 @@
     <x:col min="2" max="2" width="8.282054" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.139196" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="8.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="7.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -424,22 +428,18 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
     </x:row>
-    <x:row r="3" spans="1:4">
+    <x:row r="3" spans="1:5">
       <x:c r="A3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -452,9 +452,12 @@
       <x:c r="D3" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:D3"/>
+  <x:autoFilter ref="A1:E3"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
+++ b/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
@@ -102,7 +102,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>

--- a/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
+++ b/src/Tests/Tests.NullsWithOverride.Net.verified.xlsx
@@ -102,7 +102,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
